--- a/Log_BannerGrab/DannyHome/logBannerDanny_NoOpenNew.xlsx
+++ b/Log_BannerGrab/DannyHome/logBannerDanny_NoOpenNew.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>serive</t>
         </is>
       </c>
       <c r="D1" s="1" t="n">
@@ -493,47 +493,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(4, 'TimeoutError')</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(5, 'TimeoutError')</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(7, 'TimeoutError')</t>
         </is>
       </c>
     </row>
@@ -553,46 +553,49 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:50 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,50 +613,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">wHm7jHhjdfyADvS 501 Not Implemented
-Content-Type: text/html
-Connection: close
-Content-Length: 149
-Server: Linux/5.4.0-122-generic UPnP/1.1 MiniUPnPd/1.9
-Ext:
-&lt;HTML&gt;&lt;HEAD&gt;&lt;TITLE&gt;501 Not Implemented&lt;/TITLE&gt;&lt;/HEAD&gt;&lt;BODY&gt;&lt;H1&gt;Not Implemented&lt;/H1&gt;The HTTP Method is not implemented by this server.&lt;/BODY&gt;&lt;/HTML&gt;
-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>(4, 'KXjM61rbM2DeGSc 501 Not Implemented\r\nContent-Type: text/html\r\nConnection: close\r\nContent-Length: 149\r\nServer: Linux/5.4.0-122-generic UPnP/1.1 MiniUPnPd/1.9\r\nExt:\r\n\r\n&lt;HTML&gt;&lt;HEAD&gt;&lt;TITLE&gt;501 Not Implemented&lt;/TITLE&gt;&lt;/HEAD&gt;&lt;BODY&gt;&lt;H1&gt;Not Implemented&lt;/H1&gt;The HTTP Method is not implemented by this server.&lt;/BODY&gt;&lt;/HTML&gt;\r\n')</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>(5, '')</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'BrokenPipeError reconnect fail')</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
     </row>
@@ -673,46 +673,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:50 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -730,46 +733,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:50 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -787,47 +793,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>XXXXXXF</t>
+          <t>(1, '\x15\x03\x01\x00\x02\x02F')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(2, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(3, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, '\x15\x03\x01\x00\x02\x02F')</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
     </row>
@@ -847,43 +853,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>(2, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(3, '')</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, 'BrokenPipeError reconnect fail')</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'TimeoutError')</t>
         </is>
       </c>
     </row>
@@ -903,47 +913,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(1, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(2, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, 'TimeoutError')</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'TimeoutError')</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
     </row>
@@ -963,47 +973,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(4, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'TimeoutError')</t>
         </is>
       </c>
     </row>
@@ -1023,47 +1033,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(1, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(2, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, 'TimeoutError')</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'TimeoutError')</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
     </row>
@@ -1083,47 +1093,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(4, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'TimeoutError')</t>
         </is>
       </c>
     </row>
@@ -1143,48 +1153,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wrong Initial Data</t>
+          <t>(-1, 'SSH-2.0-OpenSSH_7.4p1 Raspbian-10+deb9u1\n')</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Protocol mismatch.
-</t>
+          <t>(3, 'Protocol mismatch.\n')</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(4, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'SSH-2.0-OpenSSH_7.4p1 Raspbian-10+deb9u1\nProtocol mismatch.\n')</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, '')</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1213,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ConnectionRefusedError</t>
+          <t>(-2, 'ConnectionRefusedError')</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1232,55 +1241,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HTTP/1.1 500 Internal Server Error
-</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transfer-Encoding: chunked
-Content-Type: text/plain
-10
-File / not_found
-0
-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
+          <t>(-2, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1298,53 +1269,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">HTTP/1.1 500 Internal Server Error
-</t>
+          <t>(4, 'HTTP/1.1 500 Internal Server Error\r\n')</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Transfer-Encoding: chunked
-Content-Type: text/plain
-10
-File / not_found
-0
-</t>
+          <t>(5, 'Transfer-Encoding: chunked\r\nContent-Type: text/plain\r\n\r\n10\r\nFile / not_found\r\n0\r\n\r\n')</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(7, 'TimeoutError')</t>
         </is>
       </c>
     </row>
@@ -1364,47 +1329,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(1, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(2, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, 'TimeoutError')</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'TimeoutError')</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
     </row>
@@ -1424,43 +1389,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>(2, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(3, '')</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, '')</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect fail')</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'TimeoutError')</t>
         </is>
       </c>
     </row>
@@ -1480,47 +1449,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(4, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'TimeoutError')</t>
         </is>
       </c>
     </row>
@@ -1540,47 +1509,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, 'TimeoutError')</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'TimeoutError')</t>
         </is>
       </c>
     </row>
@@ -1600,46 +1569,49 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:50 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1657,46 +1629,49 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:50 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1714,46 +1689,49 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:50 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1771,47 +1749,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>XXXXXXF</t>
+          <t>(1, '\x15\x03\x01\x00\x02\x02F')</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(2, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(3, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, '\x15\x03\x01\x00\x02\x02F')</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
     </row>
@@ -1831,46 +1809,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:49 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:10 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1888,46 +1869,49 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:49 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:10 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1945,46 +1929,49 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>HTTP/1.1 404 Not Found
-Connection: Keep-Alive
-Content-Length: 9
-Content-Type: text/plain
-Date: Wed, 26 Jul 2023 14:56:49 GMT
-Not Found</t>
+          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:10 GMT\r\n\r\nNot Found')</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>(5, 'TimeoutError')</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>(6, '')</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>(7, '')</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2002,47 +1989,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>XXXXXXF</t>
+          <t>(1, '\x15\x03\x01\x00\x02\x02F')</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ConnectionResetError</t>
+          <t>(2, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(3, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(4, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(5, 'BrokenPipeError reconnect success')</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(6, '\x15\x03\x01\x00\x02\x02F')</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BrokenPipeError</t>
+          <t>(7, 'ConnectionResetError reconnect fail')</t>
         </is>
       </c>
     </row>
@@ -2062,51 +2049,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(-1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(0, 'TimeoutError')</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(1, 'TimeoutError')</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(2, 'TimeoutError')</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>TimeoutError</t>
+          <t>(3, 'TimeoutError')</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">HTTP/1.1 501 Not Implemented
-</t>
+          <t>(4, 'HTTP/1.1 501 Not Implemented\r\n\r\n')</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">HTTP/1.1 400 Bad Request
-</t>
+          <t>(5, 'HTTP/1.1 400 Bad Request\r\n\r\n')</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve">HTTP/1.1 400 Bad Request
-</t>
+          <t>(6, 'HTTP/1.1 400 Bad Request\r\n\r\n')</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve">HTTP/1.1 400 Bad Request
-</t>
+          <t>(7, 'HTTP/1.1 400 Bad Request\r\n\r\n')</t>
         </is>
       </c>
     </row>

--- a/Log_BannerGrab/DannyHome/logBannerDanny_NoOpenNew.xlsx
+++ b/Log_BannerGrab/DannyHome/logBannerDanny_NoOpenNew.xlsx
@@ -493,47 +493,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(4, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>(7, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
     </row>
@@ -553,49 +553,46 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:09 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -613,47 +610,50 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>(4, 'KXjM61rbM2DeGSc 501 Not Implemented\r\nContent-Type: text/html\r\nConnection: close\r\nContent-Length: 149\r\nServer: Linux/5.4.0-122-generic UPnP/1.1 MiniUPnPd/1.9\r\nExt:\r\n\r\n&lt;HTML&gt;&lt;HEAD&gt;&lt;TITLE&gt;501 Not Implemented&lt;/TITLE&gt;&lt;/HEAD&gt;&lt;BODY&gt;&lt;H1&gt;Not Implemented&lt;/H1&gt;The HTTP Method is not implemented by this server.&lt;/BODY&gt;&lt;/HTML&gt;\r\n')</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>(5, '')</t>
-        </is>
-      </c>
+          <t xml:space="preserve">KXjM61rbM2DeGSc 501 Not Implemented
+Content-Type: text/html
+Connection: close
+Content-Length: 149
+Server: Linux/5.4.0-122-generic UPnP/1.1 MiniUPnPd/1.9
+Ext:
+&lt;HTML&gt;&lt;HEAD&gt;&lt;TITLE&gt;501 Not Implemented&lt;/TITLE&gt;&lt;/HEAD&gt;&lt;BODY&gt;&lt;H1&gt;Not Implemented&lt;/H1&gt;The HTTP Method is not implemented by this server.&lt;/BODY&gt;&lt;/HTML&gt;
+</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(6, 'BrokenPipeError reconnect fail')</t>
+          <t>BrokenPipeError reconnect fail</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>(7, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
     </row>
@@ -673,49 +673,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:09 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -733,49 +730,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:09 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -793,47 +787,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1, '\x15\x03\x01\x00\x02\x02F')</t>
+          <t>XXXXXXF</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(2, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(3, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>(4, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(6, '\x15\x03\x01\x00\x02\x02F')</t>
+          <t>XXXXXXF</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>(7, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
     </row>
@@ -853,47 +847,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(3, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>(4, 'BrokenPipeError reconnect fail')</t>
+          <t>BrokenPipeError reconnect fail</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>(7, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
     </row>
@@ -913,47 +903,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(2, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>(4, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>(7, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
     </row>
@@ -973,47 +963,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>(4, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>(7, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
     </row>
@@ -1033,47 +1023,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(1, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(2, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>(4, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>(7, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
     </row>
@@ -1093,47 +1083,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>(4, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>(7, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
     </row>
@@ -1153,49 +1143,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(-1, 'SSH-2.0-OpenSSH_7.4p1 Raspbian-10+deb9u1\n')</t>
+          <t xml:space="preserve">SSH-2.0-OpenSSH_7.4p1 Raspbian-10+deb9u1
+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(3, 'Protocol mismatch.\n')</t>
+          <t xml:space="preserve">Protocol mismatch.
+</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>(4, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>(6, 'SSH-2.0-OpenSSH_7.4p1 Raspbian-10+deb9u1\nProtocol mismatch.\n')</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t xml:space="preserve">SSH-2.0-OpenSSH_7.4p1 Raspbian-10+deb9u1
+Protocol mismatch.
+</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1213,7 +1203,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(-2, 'ConnectionRefusedError')</t>
+          <t>ConnectionRefusedError</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1241,7 +1231,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(-2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1269,47 +1259,53 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 500 Internal Server Error\r\n')</t>
+          <t xml:space="preserve">HTTP/1.1 500 Internal Server Error
+</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>(5, 'Transfer-Encoding: chunked\r\nContent-Type: text/plain\r\n\r\n10\r\nFile / not_found\r\n0\r\n\r\n')</t>
+          <t xml:space="preserve">Transfer-Encoding: chunked
+Content-Type: text/plain
+10
+File / not_found
+0
+</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>(7, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1325,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(1, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(2, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>(4, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>(7, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
     </row>
@@ -1389,47 +1385,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(3, '')</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>(4, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect fail')</t>
+          <t>BrokenPipeError reconnect fail</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>(6, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>(7, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
     </row>
@@ -1449,47 +1437,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>(4, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>(7, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
     </row>
@@ -1509,47 +1497,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>(4, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>(6, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>(7, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
     </row>
@@ -1569,49 +1557,46 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:09 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1629,49 +1614,46 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:09 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1689,49 +1671,46 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:09 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:09 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1749,47 +1728,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(1, '\x15\x03\x01\x00\x02\x02F')</t>
+          <t>XXXXXXF</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(2, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(3, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>(4, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>(6, '\x15\x03\x01\x00\x02\x02F')</t>
+          <t>XXXXXXF</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>(7, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
     </row>
@@ -1809,49 +1788,46 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:10 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:10 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1869,49 +1845,46 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:10 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:10 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1929,49 +1902,46 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 404 Not Found\r\nConnection: Keep-Alive\r\nContent-Length: 9\r\nContent-Type: text/plain\r\nDate: Thu, 27 Jul 2023 03:08:10 GMT\r\n\r\nNot Found')</t>
+          <t>HTTP/1.1 404 Not Found
+Connection: Keep-Alive
+Content-Length: 9
+Content-Type: text/plain
+Date: Thu, 27 Jul 2023 03:08:10 GMT
+Not Found</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>(5, 'TimeoutError')</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>(6, '')</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>(7, '')</t>
-        </is>
-      </c>
+          <t>TimeoutError</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1989,47 +1959,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(1, '\x15\x03\x01\x00\x02\x02F')</t>
+          <t>XXXXXXF</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(2, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(3, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>(4, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>(5, 'BrokenPipeError reconnect success')</t>
+          <t>BrokenPipeError reconnect success</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>(6, '\x15\x03\x01\x00\x02\x02F')</t>
+          <t>XXXXXXF</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>(7, 'ConnectionResetError reconnect fail')</t>
+          <t>ConnectionResetError reconnect fail</t>
         </is>
       </c>
     </row>
@@ -2049,47 +2019,51 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(-1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(0, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(1, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(2, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(3, 'TimeoutError')</t>
+          <t>TimeoutError</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>(4, 'HTTP/1.1 501 Not Implemented\r\n\r\n')</t>
+          <t xml:space="preserve">HTTP/1.1 501 Not Implemented
+</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>(5, 'HTTP/1.1 400 Bad Request\r\n\r\n')</t>
+          <t xml:space="preserve">HTTP/1.1 400 Bad Request
+</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>(6, 'HTTP/1.1 400 Bad Request\r\n\r\n')</t>
+          <t xml:space="preserve">HTTP/1.1 400 Bad Request
+</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>(7, 'HTTP/1.1 400 Bad Request\r\n\r\n')</t>
+          <t xml:space="preserve">HTTP/1.1 400 Bad Request
+</t>
         </is>
       </c>
     </row>
